--- a/statistic/result_analysis.xlsx
+++ b/statistic/result_analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gengjiaxuan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gengjiaxuan/Desktop/project/novel-ids/statistic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Train+（训练）" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="99">
   <si>
     <t>RandomForest</t>
   </si>
@@ -321,6 +321,90 @@
   </si>
   <si>
     <t>[30, 29, 35, 1, 19, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31, 11, 25, 36, 19, 40, 32, 34, 6, 5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[23, 5, 29, 24, 35, 32, 16, 4, 28]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27, 35, 17, 37, 25, 32, 4, 5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[35, 23, 22, 5, 25, 2, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[32, 22, 5, 4, 16, 24]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[38, 9, 31, 32, 23, 27, 19, 36, 5, 20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25, 29, 19, 5, 16, 35, 24, 31, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[35, 6, 25, 4, 5, 0, 10, 39]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[35, 22, 9, 32, 4, 31, 37]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[22, 28, 15, 18, 38, 34]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[37, 33, 31, 27, 28, 1, 22, 38, 34, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[33, 26, 16, 22, 5, 7, 3, 34, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 29, 31, 22, 3, 4, 1, 12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[34, 29, 22, 28, 3, 27, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[24, 33, 4, 30, 5, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31, 22, 23, 28, 34, 38, 26, 29, 1, 33]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 11, 33, 30, 28, 7, 29, 12, 25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 31, 22, 4, 24, 12, 33, 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[22, 28, 0, 27, 4, 23, 31]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[29, 26, 23, 5, 3, 35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[39, 15, 4, 1, 21, 31, 34, 11, 37, 38]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +487,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -466,8 +556,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -480,8 +580,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -502,6 +604,11 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -521,6 +628,11 @@
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -797,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,36 +1061,84 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.9456</v>
+      </c>
+      <c r="E4">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="G4">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.1067</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.2390000000000001E-6</v>
+      </c>
       <c r="K4" t="s">
         <v>5</v>
       </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="N4">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="O4">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="P4">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="R4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2.2589999999999999E-6</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>0.99650000000000005</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <v>0.99650000000000005</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="12">
         <v>0.99609999999999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>0.99629999999999996</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="13">
         <v>2.2180000000000002E-6</v>
       </c>
       <c r="K5" t="s">
@@ -1077,8 +1237,56 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>0.995</v>
+      </c>
+      <c r="D8">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="G8">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H8">
+        <v>7.6E-3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3.2179999999999999E-6</v>
+      </c>
       <c r="K8" t="s">
         <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="O8">
+        <v>0.99</v>
+      </c>
+      <c r="P8">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="R8">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="S8" s="7">
+        <v>3.2559999999999998E-6</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1299,23 +1507,58 @@
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.9274</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.9173</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1.8330000000000001E-6</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1.6930000000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1457,23 +1700,58 @@
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2.7159999999999999E-6</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="R20">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>2.5890000000000001E-6</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1626,11 +1904,30 @@
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="G28" s="4">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.1109</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1.5999999999999999E-6</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
@@ -1704,11 +2001,30 @@
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.9919</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="G32" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2.7319999999999998E-6</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -1752,6 +2068,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1760,13 +2077,13 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
@@ -1776,7 +2093,7 @@
     <col min="9" max="9" width="27.33203125" customWidth="1"/>
     <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.83203125" customWidth="1"/>
     <col min="16" max="16" width="9.5" customWidth="1"/>
@@ -1854,24 +2171,42 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
       <c r="K3" t="s">
         <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
       <c r="K4" t="s">
         <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="K5" t="s">
         <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1886,16 +2221,28 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
       <c r="K7" t="s">
         <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
       <c r="K8" t="s">
         <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1910,8 +2257,14 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
       <c r="K10" t="s">
         <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -2011,7 +2364,9 @@
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2022,7 +2377,9 @@
       <c r="K15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2033,7 +2390,9 @@
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2044,7 +2403,9 @@
       <c r="K16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2055,7 +2416,9 @@
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2066,7 +2429,9 @@
       <c r="K17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2099,7 +2464,9 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2110,7 +2477,9 @@
       <c r="K19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2121,7 +2490,9 @@
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2132,7 +2503,9 @@
       <c r="K20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2165,13 +2538,18 @@
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2221,7 +2599,9 @@
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2231,7 +2611,9 @@
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2241,7 +2623,9 @@
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2261,7 +2645,9 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2271,7 +2657,9 @@
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2290,6 +2678,9 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2302,8 +2693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2453,8 +2844,56 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="G4">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.1101</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.204E-6</v>
+      </c>
       <c r="K4" t="s">
         <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="P4">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.1011</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2.1880000000000001E-6</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2581,8 +3020,56 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="G8">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H8">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3.4120000000000001E-6</v>
+      </c>
       <c r="K8" t="s">
         <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="N8">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="O8">
+        <v>0.9748</v>
+      </c>
+      <c r="P8">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>1.54E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.18E-2</v>
+      </c>
+      <c r="S8" s="7">
+        <v>3.2440000000000002E-6</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2803,23 +3290,58 @@
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.9234</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.9032</v>
+      </c>
+      <c r="G16" s="4">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2.1059999999999998E-6</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.1144</v>
+      </c>
+      <c r="S16" s="7">
+        <v>1.8929999999999999E-6</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -2961,23 +3483,58 @@
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.995</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2.6560000000000001E-6</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="R20" s="4">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>2.531E-6</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -3130,11 +3687,30 @@
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.1188</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1.559E-6</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
@@ -3208,11 +3784,30 @@
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.52E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2.4669999999999998E-6</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -3264,13 +3859,13 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
@@ -3280,7 +3875,7 @@
     <col min="9" max="9" width="27.33203125" customWidth="1"/>
     <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="27.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.83203125" customWidth="1"/>
     <col min="16" max="16" width="9.5" customWidth="1"/>
@@ -3358,24 +3953,42 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
       <c r="K3" t="s">
         <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
       <c r="K4" t="s">
         <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
       <c r="K5" t="s">
         <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -3390,16 +4003,28 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
       <c r="K7" t="s">
         <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
       <c r="K8" t="s">
         <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -3414,8 +4039,14 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
       <c r="K10" t="s">
         <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -3515,7 +4146,9 @@
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3526,7 +4159,9 @@
       <c r="K15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -3537,7 +4172,9 @@
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3548,7 +4185,9 @@
       <c r="K16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -3559,7 +4198,9 @@
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3570,7 +4211,9 @@
       <c r="K17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -3603,7 +4246,9 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3614,7 +4259,9 @@
       <c r="K19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -3625,7 +4272,9 @@
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3636,7 +4285,9 @@
       <c r="K20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -3669,13 +4320,18 @@
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3725,7 +4381,9 @@
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3735,7 +4393,9 @@
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3745,7 +4405,9 @@
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3765,7 +4427,9 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3775,7 +4439,9 @@
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3795,6 +4461,9 @@
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
